--- a/src/test/java/testData/gyansetu login data.xlsx
+++ b/src/test/java/testData/gyansetu login data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIIS\IdeaProjects\testGyansetu\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A420A41E-BA9F-41D2-968B-A48A90800342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C79960-2CCC-45BD-9D1E-66B91055121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dashboard_innerchat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>UserName</t>
   </si>
@@ -85,6 +86,30 @@
   </si>
   <si>
     <t>Sali@123</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sameeo@gmail.com</t>
+  </si>
+  <si>
+    <t>sam123@gmail.com</t>
+  </si>
+  <si>
+    <t>same.12@gmail.com</t>
+  </si>
+  <si>
+    <t>same.12a@gmail.com</t>
+  </si>
+  <si>
+    <t>same.12aa@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -414,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,11 +551,76 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF656412-E462-4791-9AB4-CEA454589D53}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
